--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N2">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O2">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P2">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q2">
-        <v>39.86649857075557</v>
+        <v>47.5710768478575</v>
       </c>
       <c r="R2">
-        <v>39.86649857075557</v>
+        <v>190.28430739143</v>
       </c>
       <c r="S2">
-        <v>0.007234725922347163</v>
+        <v>0.00754670216428834</v>
       </c>
       <c r="T2">
-        <v>0.007234725922347163</v>
+        <v>0.004639432414236274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N3">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P3">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q3">
-        <v>17.18339893551562</v>
+        <v>22.14165633505</v>
       </c>
       <c r="R3">
-        <v>17.18339893551562</v>
+        <v>132.8499380103</v>
       </c>
       <c r="S3">
-        <v>0.003118337104327529</v>
+        <v>0.003512564710676212</v>
       </c>
       <c r="T3">
-        <v>0.003118337104327529</v>
+        <v>0.003239091636528848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N4">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O4">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P4">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q4">
-        <v>123.0338617181253</v>
+        <v>152.6163924158651</v>
       </c>
       <c r="R4">
-        <v>123.0338617181253</v>
+        <v>915.6983544951902</v>
       </c>
       <c r="S4">
-        <v>0.02232742529717796</v>
+        <v>0.02421114961585234</v>
       </c>
       <c r="T4">
-        <v>0.02232742529717796</v>
+        <v>0.02232617437426759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N5">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O5">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P5">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q5">
-        <v>150.3033131177979</v>
+        <v>179.334077497155</v>
       </c>
       <c r="R5">
-        <v>150.3033131177979</v>
+        <v>1076.00446498293</v>
       </c>
       <c r="S5">
-        <v>0.02727611690547785</v>
+        <v>0.02844965807914827</v>
       </c>
       <c r="T5">
-        <v>0.02727611690547785</v>
+        <v>0.02623469092716994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N6">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O6">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P6">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q6">
-        <v>34.96052558072262</v>
+        <v>43.999378115595</v>
       </c>
       <c r="R6">
-        <v>34.96052558072262</v>
+        <v>263.99626869357</v>
       </c>
       <c r="S6">
-        <v>0.006344420246208279</v>
+        <v>0.006980085885259009</v>
       </c>
       <c r="T6">
-        <v>0.006344420246208279</v>
+        <v>0.006436646631584184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N7">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O7">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P7">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q7">
-        <v>20.23369408122559</v>
+        <v>24.507645149295</v>
       </c>
       <c r="R7">
-        <v>20.23369408122559</v>
+        <v>98.03058059718002</v>
       </c>
       <c r="S7">
-        <v>0.003671885827005317</v>
+        <v>0.003887906495817007</v>
       </c>
       <c r="T7">
-        <v>0.003671885827005317</v>
+        <v>0.002390140624015756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N8">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O8">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P8">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q8">
-        <v>55.12064359926509</v>
+        <v>62.711989753283</v>
       </c>
       <c r="R8">
-        <v>55.12064359926509</v>
+        <v>376.271938519698</v>
       </c>
       <c r="S8">
-        <v>0.01000295394380567</v>
+        <v>0.009948665032568922</v>
       </c>
       <c r="T8">
-        <v>0.01000295394380567</v>
+        <v>0.009174105064506371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H9">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J9">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N9">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P9">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q9">
-        <v>23.75829437008409</v>
+        <v>29.18889832250889</v>
       </c>
       <c r="R9">
-        <v>23.75829437008409</v>
+        <v>262.70008490258</v>
       </c>
       <c r="S9">
-        <v>0.004311508517482136</v>
+        <v>0.004630543110221627</v>
       </c>
       <c r="T9">
-        <v>0.004311508517482136</v>
+        <v>0.006405043620399681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H10">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J10">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N10">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O10">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P10">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q10">
-        <v>170.1103905669014</v>
+        <v>201.1911075289816</v>
       </c>
       <c r="R10">
-        <v>170.1103905669014</v>
+        <v>1810.719967760834</v>
       </c>
       <c r="S10">
-        <v>0.03087058298111373</v>
+        <v>0.03191706951432854</v>
       </c>
       <c r="T10">
-        <v>0.03087058298111373</v>
+        <v>0.04414821708998597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H11">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J11">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N11">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O11">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P11">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q11">
-        <v>207.8139704055245</v>
+        <v>236.412492119622</v>
       </c>
       <c r="R11">
-        <v>207.8139704055245</v>
+        <v>2127.712429076598</v>
       </c>
       <c r="S11">
-        <v>0.0377127957713754</v>
+        <v>0.03750460961079347</v>
       </c>
       <c r="T11">
-        <v>0.0377127957713754</v>
+        <v>0.05187699472939276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H12">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J12">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N12">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O12">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P12">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q12">
-        <v>48.33749488076699</v>
+        <v>58.00349145681133</v>
       </c>
       <c r="R12">
-        <v>48.33749488076699</v>
+        <v>522.0314231113019</v>
       </c>
       <c r="S12">
-        <v>0.00877199001097478</v>
+        <v>0.009201706236614504</v>
       </c>
       <c r="T12">
-        <v>0.00877199001097478</v>
+        <v>0.01272795186757236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H13">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J13">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N13">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O13">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P13">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q13">
-        <v>27.97572598878622</v>
+        <v>32.307933587358</v>
       </c>
       <c r="R13">
-        <v>27.97572598878622</v>
+        <v>193.847601524148</v>
       </c>
       <c r="S13">
-        <v>0.005076861958376821</v>
+        <v>0.005125348604303869</v>
       </c>
       <c r="T13">
-        <v>0.005076861958376821</v>
+        <v>0.00472631116176632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J14">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N14">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O14">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P14">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q14">
-        <v>80.49560639942142</v>
+        <v>1.46161368757</v>
       </c>
       <c r="R14">
-        <v>80.49560639942142</v>
+        <v>8.769682125420001</v>
       </c>
       <c r="S14">
-        <v>0.01460784546250938</v>
+        <v>0.0002318712106226951</v>
       </c>
       <c r="T14">
-        <v>0.01460784546250938</v>
+        <v>0.000213818722484177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J15">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N15">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P15">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q15">
-        <v>34.69550040524884</v>
+        <v>0.6802988309111111</v>
       </c>
       <c r="R15">
-        <v>34.69550040524884</v>
+        <v>6.1226894782</v>
       </c>
       <c r="S15">
-        <v>0.006296325114310207</v>
+        <v>0.0001079229859777903</v>
       </c>
       <c r="T15">
-        <v>0.006296325114310207</v>
+        <v>0.0001492808546163055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J16">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N16">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O16">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P16">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q16">
-        <v>248.4212474563289</v>
+        <v>4.689114118984445</v>
       </c>
       <c r="R16">
-        <v>248.4212474563289</v>
+        <v>42.20202707086001</v>
       </c>
       <c r="S16">
-        <v>0.04508195359681068</v>
+        <v>0.000743883679226166</v>
       </c>
       <c r="T16">
-        <v>0.04508195359681068</v>
+        <v>0.001028952176998295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J17">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N17">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O17">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P17">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q17">
-        <v>303.4817896481735</v>
+        <v>5.51001069738</v>
       </c>
       <c r="R17">
-        <v>303.4817896481735</v>
+        <v>49.59009627642001</v>
       </c>
       <c r="S17">
-        <v>0.05507400070841831</v>
+        <v>0.0008741111702843938</v>
       </c>
       <c r="T17">
-        <v>0.05507400070841831</v>
+        <v>0.001209084991000589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J18">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N18">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O18">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P18">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q18">
-        <v>70.58981369201837</v>
+        <v>1.351873818286667</v>
       </c>
       <c r="R18">
-        <v>70.58981369201837</v>
+        <v>12.16686436458</v>
       </c>
       <c r="S18">
-        <v>0.01281020338580547</v>
+        <v>0.0002144620165513073</v>
       </c>
       <c r="T18">
-        <v>0.01281020338580547</v>
+        <v>0.0002966473992862269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J19">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N19">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O19">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P19">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q19">
-        <v>40.85444002256578</v>
+        <v>0.7529934568200001</v>
       </c>
       <c r="R19">
-        <v>40.85444002256578</v>
+        <v>4.51796074092</v>
       </c>
       <c r="S19">
-        <v>0.007414011434930796</v>
+        <v>0.0001194553019779788</v>
       </c>
       <c r="T19">
-        <v>0.007414011434930796</v>
+        <v>0.0001101550295713729</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H20">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I20">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J20">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N20">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O20">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P20">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q20">
-        <v>394.2591390931067</v>
+        <v>118.0142605983765</v>
       </c>
       <c r="R20">
-        <v>394.2591390931067</v>
+        <v>708.0855635902591</v>
       </c>
       <c r="S20">
-        <v>0.07154771339290746</v>
+        <v>0.01872184812471336</v>
       </c>
       <c r="T20">
-        <v>0.07154771339290746</v>
+        <v>0.01726424612101966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H21">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I21">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J21">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N21">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O21">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P21">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q21">
-        <v>169.9349657955526</v>
+        <v>54.92898992304334</v>
       </c>
       <c r="R21">
-        <v>169.9349657955526</v>
+        <v>494.36090930739</v>
       </c>
       <c r="S21">
-        <v>0.03083874797713296</v>
+        <v>0.008713965598470012</v>
       </c>
       <c r="T21">
-        <v>0.03083874797713296</v>
+        <v>0.012053300970605</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H22">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I22">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J22">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N22">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O22">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P22">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q22">
-        <v>1216.741528333549</v>
+        <v>378.6105318522164</v>
       </c>
       <c r="R22">
-        <v>1216.741528333549</v>
+        <v>3407.494786669948</v>
       </c>
       <c r="S22">
-        <v>0.2208067372710881</v>
+        <v>0.06006298594605317</v>
       </c>
       <c r="T22">
-        <v>0.2208067372710881</v>
+        <v>0.08308011302318073</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H23">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I23">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J23">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N23">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O23">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P23">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q23">
-        <v>1486.422358549798</v>
+        <v>444.891727458801</v>
       </c>
       <c r="R23">
-        <v>1486.422358549798</v>
+        <v>4004.025547129209</v>
       </c>
       <c r="S23">
-        <v>0.2697467486358388</v>
+        <v>0.07057787178594266</v>
       </c>
       <c r="T23">
-        <v>0.2697467486358388</v>
+        <v>0.09762447658160393</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H24">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I24">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J24">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N24">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O24">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P24">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q24">
-        <v>345.7415928623652</v>
+        <v>109.153595402249</v>
       </c>
       <c r="R24">
-        <v>345.7415928623652</v>
+        <v>982.382358620241</v>
       </c>
       <c r="S24">
-        <v>0.06274304877503931</v>
+        <v>0.01731618725589362</v>
       </c>
       <c r="T24">
-        <v>0.06274304877503931</v>
+        <v>0.02395203587850828</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.441137</v>
+      </c>
+      <c r="N25">
+        <v>14.882274</v>
+      </c>
+      <c r="O25">
+        <v>0.05212504700475732</v>
+      </c>
+      <c r="P25">
+        <v>0.03662142855982794</v>
+      </c>
+      <c r="Q25">
+        <v>60.79853164878901</v>
+      </c>
+      <c r="R25">
+        <v>364.7911898927341</v>
+      </c>
+      <c r="S25">
+        <v>0.009645112971625609</v>
+      </c>
+      <c r="T25">
+        <v>0.008894186252231083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.4437745</v>
+      </c>
+      <c r="N26">
+        <v>28.887549</v>
+      </c>
+      <c r="O26">
+        <v>0.1011784119468053</v>
+      </c>
+      <c r="P26">
+        <v>0.07108478932534294</v>
+      </c>
+      <c r="Q26">
+        <v>408.0250746054001</v>
+      </c>
+      <c r="R26">
+        <v>1632.1002984216</v>
+      </c>
+      <c r="S26">
+        <v>0.064729325414612</v>
+      </c>
+      <c r="T26">
+        <v>0.03979318700309647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.722763333333333</v>
+      </c>
+      <c r="N27">
+        <v>20.16829</v>
+      </c>
+      <c r="O27">
+        <v>0.04709285083070759</v>
+      </c>
+      <c r="P27">
+        <v>0.04962894725691061</v>
+      </c>
+      <c r="Q27">
+        <v>189.912685956</v>
+      </c>
+      <c r="R27">
+        <v>1139.476115736</v>
+      </c>
+      <c r="S27">
+        <v>0.03012785442536195</v>
+      </c>
+      <c r="T27">
+        <v>0.02778223017476078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>46.33817233333334</v>
+      </c>
+      <c r="N28">
+        <v>139.014517</v>
+      </c>
+      <c r="O28">
+        <v>0.3245981643651428</v>
+      </c>
+      <c r="P28">
+        <v>0.342078784673262</v>
+      </c>
+      <c r="Q28">
+        <v>1309.0162978788</v>
+      </c>
+      <c r="R28">
+        <v>7854.097787272801</v>
+      </c>
+      <c r="S28">
+        <v>0.2076630756096825</v>
+      </c>
+      <c r="T28">
+        <v>0.1914953280088295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>54.450333</v>
+      </c>
+      <c r="N29">
+        <v>163.350999</v>
+      </c>
+      <c r="O29">
+        <v>0.3814237215427815</v>
+      </c>
+      <c r="P29">
+        <v>0.4019645747723113</v>
+      </c>
+      <c r="Q29">
+        <v>1538.1783469836</v>
+      </c>
+      <c r="R29">
+        <v>9229.0700819016</v>
+      </c>
+      <c r="S29">
+        <v>0.2440174708966127</v>
+      </c>
+      <c r="T29">
+        <v>0.2250193275431441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.20742354588829</v>
-      </c>
-      <c r="N25">
-        <v>7.20742354588829</v>
-      </c>
-      <c r="O25">
-        <v>0.05247581897984876</v>
-      </c>
-      <c r="P25">
-        <v>0.05247581897984876</v>
-      </c>
-      <c r="Q25">
-        <v>200.1008138444624</v>
-      </c>
-      <c r="R25">
-        <v>200.1008138444624</v>
-      </c>
-      <c r="S25">
-        <v>0.03631305975953582</v>
-      </c>
-      <c r="T25">
-        <v>0.03631305975953582</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>13.359317</v>
+      </c>
+      <c r="N30">
+        <v>40.077951</v>
+      </c>
+      <c r="O30">
+        <v>0.09358180430980555</v>
+      </c>
+      <c r="P30">
+        <v>0.09862147541234521</v>
+      </c>
+      <c r="Q30">
+        <v>377.3900177964</v>
+      </c>
+      <c r="R30">
+        <v>2264.3401067784</v>
+      </c>
+      <c r="S30">
+        <v>0.05986936291548709</v>
+      </c>
+      <c r="T30">
+        <v>0.05520819363539417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.441137</v>
+      </c>
+      <c r="N31">
+        <v>14.882274</v>
+      </c>
+      <c r="O31">
+        <v>0.05212504700475732</v>
+      </c>
+      <c r="P31">
+        <v>0.03662142855982794</v>
+      </c>
+      <c r="Q31">
+        <v>210.2061673404</v>
+      </c>
+      <c r="R31">
+        <v>840.8246693616001</v>
+      </c>
+      <c r="S31">
+        <v>0.03334722363103285</v>
+      </c>
+      <c r="T31">
+        <v>0.02050063549224341</v>
       </c>
     </row>
   </sheetData>
